--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H2">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I2">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J2">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N2">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O2">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P2">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q2">
-        <v>106.2032925491405</v>
+        <v>65.6937576635425</v>
       </c>
       <c r="R2">
-        <v>424.813170196562</v>
+        <v>262.77503065417</v>
       </c>
       <c r="S2">
-        <v>0.01833613570800075</v>
+        <v>0.02292692430777723</v>
       </c>
       <c r="T2">
-        <v>0.01161644820876873</v>
+        <v>0.01301194101623406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H3">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I3">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J3">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P3">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q3">
-        <v>48.55858285684467</v>
+        <v>57.99169181199333</v>
       </c>
       <c r="R3">
-        <v>291.351497141068</v>
+        <v>347.95015087196</v>
       </c>
       <c r="S3">
-        <v>0.008383702083806141</v>
+        <v>0.02023892643594927</v>
       </c>
       <c r="T3">
-        <v>0.007966960100414134</v>
+        <v>0.0172295930418678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H4">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I4">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J4">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N4">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O4">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P4">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q4">
-        <v>60.32635772597</v>
+        <v>70.82229051310834</v>
       </c>
       <c r="R4">
-        <v>361.95814635582</v>
+        <v>424.93374307865</v>
       </c>
       <c r="S4">
-        <v>0.01041542362277484</v>
+        <v>0.02471676688390373</v>
       </c>
       <c r="T4">
-        <v>0.009897687632751138</v>
+        <v>0.02104162175143564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H5">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I5">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J5">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N5">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O5">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P5">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q5">
-        <v>35.14875797658151</v>
+        <v>32.24651553483</v>
       </c>
       <c r="R5">
-        <v>140.595031906326</v>
+        <v>128.98606213932</v>
       </c>
       <c r="S5">
-        <v>0.006068478488348788</v>
+        <v>0.01125393716467067</v>
       </c>
       <c r="T5">
-        <v>0.003844548665462353</v>
+        <v>0.006387056746963026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H6">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I6">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J6">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N6">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O6">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P6">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q6">
-        <v>58.68707341061218</v>
+        <v>91.23623382276166</v>
       </c>
       <c r="R6">
-        <v>352.1224404636731</v>
+        <v>547.4174029365699</v>
       </c>
       <c r="S6">
-        <v>0.01013239906723679</v>
+        <v>0.03184117184610328</v>
       </c>
       <c r="T6">
-        <v>0.009628731827920654</v>
+        <v>0.02710669632703798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H7">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I7">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J7">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N7">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O7">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P7">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q7">
-        <v>87.77299469352317</v>
+        <v>73.90347714284333</v>
       </c>
       <c r="R7">
-        <v>526.637968161139</v>
+        <v>443.42086285706</v>
       </c>
       <c r="S7">
-        <v>0.01515412096525529</v>
+        <v>0.0257920917724551</v>
       </c>
       <c r="T7">
-        <v>0.01440083102669442</v>
+        <v>0.02195705618794917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J8">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N8">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O8">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P8">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q8">
-        <v>521.9330679373439</v>
+        <v>270.334305404832</v>
       </c>
       <c r="R8">
-        <v>3131.598407624063</v>
+        <v>1622.005832428992</v>
       </c>
       <c r="S8">
-        <v>0.09011241868762349</v>
+        <v>0.09434586143717777</v>
       </c>
       <c r="T8">
-        <v>0.08563305769450455</v>
+        <v>0.08031754070016602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J9">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P9">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q9">
-        <v>238.6397777021439</v>
+        <v>238.639777702144</v>
       </c>
       <c r="R9">
         <v>2147.757999319296</v>
       </c>
       <c r="S9">
-        <v>0.0412014660209238</v>
+        <v>0.08328456636966265</v>
       </c>
       <c r="T9">
-        <v>0.05873009905158365</v>
+        <v>0.1063514304792036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J10">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N10">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O10">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P10">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q10">
-        <v>296.4721734105599</v>
+        <v>291.43856880736</v>
       </c>
       <c r="R10">
-        <v>2668.249560695039</v>
+        <v>2622.94711926624</v>
       </c>
       <c r="S10">
-        <v>0.05118630387835327</v>
+        <v>0.101711186040457</v>
       </c>
       <c r="T10">
-        <v>0.07296285756757995</v>
+        <v>0.1298815687305934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J11">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N11">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O11">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P11">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q11">
-        <v>172.737573803712</v>
+        <v>132.696616678272</v>
       </c>
       <c r="R11">
-        <v>1036.425442822272</v>
+        <v>796.179700069632</v>
       </c>
       <c r="S11">
-        <v>0.02982336535065636</v>
+        <v>0.04631072105910673</v>
       </c>
       <c r="T11">
-        <v>0.02834088800312943</v>
+        <v>0.0394247629610716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J12">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N12">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O12">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P12">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q12">
-        <v>288.415957153984</v>
+        <v>375.443341581248</v>
       </c>
       <c r="R12">
-        <v>2595.743614385856</v>
+        <v>3378.990074231232</v>
       </c>
       <c r="S12">
-        <v>0.04979538773038895</v>
+        <v>0.1310285996787972</v>
       </c>
       <c r="T12">
-        <v>0.07098019405990508</v>
+        <v>0.1673188637096993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J13">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N13">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O13">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P13">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q13">
-        <v>431.357892046912</v>
+        <v>304.117862502784</v>
       </c>
       <c r="R13">
-        <v>3882.221028422207</v>
+        <v>2737.060762525056</v>
       </c>
       <c r="S13">
-        <v>0.07447449751738723</v>
+        <v>0.1061362214954221</v>
       </c>
       <c r="T13">
-        <v>0.1061587132310251</v>
+        <v>0.1355321816961207</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H14">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I14">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J14">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N14">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O14">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P14">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q14">
-        <v>842.3441587859619</v>
+        <v>144.295435396741</v>
       </c>
       <c r="R14">
-        <v>3369.376635143848</v>
+        <v>577.1817415869639</v>
       </c>
       <c r="S14">
-        <v>0.1454318075985689</v>
+        <v>0.0503586739891238</v>
       </c>
       <c r="T14">
-        <v>0.09213506530382221</v>
+        <v>0.02858054952359928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H15">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I15">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J15">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P15">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q15">
-        <v>385.1390822884453</v>
+        <v>127.3779536598053</v>
       </c>
       <c r="R15">
-        <v>2310.834493730672</v>
+        <v>764.2677219588319</v>
       </c>
       <c r="S15">
-        <v>0.06649476028276821</v>
+        <v>0.04445452362452715</v>
       </c>
       <c r="T15">
-        <v>0.06318939971432154</v>
+        <v>0.037844564203772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H16">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I16">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J16">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N16">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O16">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P16">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q16">
-        <v>478.4743846598799</v>
+        <v>155.5601872817633</v>
       </c>
       <c r="R16">
-        <v>2870.846307959279</v>
+        <v>933.3611236905799</v>
       </c>
       <c r="S16">
-        <v>0.08260922085693578</v>
+        <v>0.05429003859664914</v>
       </c>
       <c r="T16">
-        <v>0.07850283322504628</v>
+        <v>0.0462176328476628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H17">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I17">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J17">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N17">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O17">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P17">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q17">
-        <v>278.779972442526</v>
+        <v>70.82902797183598</v>
       </c>
       <c r="R17">
-        <v>1115.119889770104</v>
+        <v>283.3161118873439</v>
       </c>
       <c r="S17">
-        <v>0.04813172251711169</v>
+        <v>0.02471911823678366</v>
       </c>
       <c r="T17">
-        <v>0.03049277507118857</v>
+        <v>0.01402908232052902</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H18">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I18">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J18">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N18">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O18">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P18">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q18">
-        <v>465.4725131125153</v>
+        <v>200.3991330628407</v>
       </c>
       <c r="R18">
-        <v>2792.835078675092</v>
+        <v>1202.394798377044</v>
       </c>
       <c r="S18">
-        <v>0.08036443093161251</v>
+        <v>0.0699386961331596</v>
       </c>
       <c r="T18">
-        <v>0.07636962863474876</v>
+        <v>0.05953948575616105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H19">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I19">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J19">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N19">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O19">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P19">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q19">
-        <v>696.1655105469594</v>
+        <v>162.3279713466253</v>
       </c>
       <c r="R19">
-        <v>4176.993063281756</v>
+        <v>973.9678280797518</v>
       </c>
       <c r="S19">
-        <v>0.1201938750694785</v>
+        <v>0.05665197492827388</v>
       </c>
       <c r="T19">
-        <v>0.1142192073883859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.799402</v>
-      </c>
-      <c r="H20">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J20">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>44.544241</v>
-      </c>
-      <c r="N20">
-        <v>89.088482</v>
-      </c>
-      <c r="O20">
-        <v>0.2677188803968526</v>
-      </c>
-      <c r="P20">
-        <v>0.2025351964154738</v>
-      </c>
-      <c r="Q20">
-        <v>80.15299634388198</v>
-      </c>
-      <c r="R20">
-        <v>480.9179780632919</v>
-      </c>
-      <c r="S20">
-        <v>0.01383851840265947</v>
-      </c>
-      <c r="T20">
-        <v>0.0131506252083783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.799402</v>
-      </c>
-      <c r="H21">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J21">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>20.36664933333333</v>
-      </c>
-      <c r="N21">
-        <v>61.099948</v>
-      </c>
-      <c r="O21">
-        <v>0.1224072166131488</v>
-      </c>
-      <c r="P21">
-        <v>0.1389056103700951</v>
-      </c>
-      <c r="Q21">
-        <v>36.64778954369866</v>
-      </c>
-      <c r="R21">
-        <v>329.830105893288</v>
-      </c>
-      <c r="S21">
-        <v>0.006327288225650663</v>
-      </c>
-      <c r="T21">
-        <v>0.009019151503775798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.799402</v>
-      </c>
-      <c r="H22">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J22">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>25.30234</v>
-      </c>
-      <c r="N22">
-        <v>75.90701999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.1520716030658261</v>
-      </c>
-      <c r="P22">
-        <v>0.1725682474308328</v>
-      </c>
-      <c r="Q22">
-        <v>45.52908120067999</v>
-      </c>
-      <c r="R22">
-        <v>409.7617308061199</v>
-      </c>
-      <c r="S22">
-        <v>0.00786065470776226</v>
-      </c>
-      <c r="T22">
-        <v>0.01120486900545545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.799402</v>
-      </c>
-      <c r="H23">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J23">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.742243</v>
-      </c>
-      <c r="N23">
-        <v>29.484486</v>
-      </c>
-      <c r="O23">
-        <v>0.0886035254366179</v>
-      </c>
-      <c r="P23">
-        <v>0.06703050752643072</v>
-      </c>
-      <c r="Q23">
-        <v>26.527221538686</v>
-      </c>
-      <c r="R23">
-        <v>159.163329232116</v>
-      </c>
-      <c r="S23">
-        <v>0.004579959080501062</v>
-      </c>
-      <c r="T23">
-        <v>0.004352295786650367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.799402</v>
-      </c>
-      <c r="H24">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J24">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>24.61478433333334</v>
-      </c>
-      <c r="N24">
-        <v>73.84435300000001</v>
-      </c>
-      <c r="O24">
-        <v>0.1479392701500961</v>
-      </c>
-      <c r="P24">
-        <v>0.1678789468994273</v>
-      </c>
-      <c r="Q24">
-        <v>44.29189215896866</v>
-      </c>
-      <c r="R24">
-        <v>398.627029430718</v>
-      </c>
-      <c r="S24">
-        <v>0.007647052420857891</v>
-      </c>
-      <c r="T24">
-        <v>0.01090039237685278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.799402</v>
-      </c>
-      <c r="H25">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J25">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.81412633333333</v>
-      </c>
-      <c r="N25">
-        <v>110.442379</v>
-      </c>
-      <c r="O25">
-        <v>0.2212595043374583</v>
-      </c>
-      <c r="P25">
-        <v>0.2510814913577403</v>
-      </c>
-      <c r="Q25">
-        <v>66.24341255245265</v>
-      </c>
-      <c r="R25">
-        <v>596.1907129720739</v>
-      </c>
-      <c r="S25">
-        <v>0.0114370107853373</v>
-      </c>
-      <c r="T25">
-        <v>0.01630273971163489</v>
+        <v>0.04822837199993383</v>
       </c>
     </row>
   </sheetData>
